--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291095.6297792098</v>
+        <v>290911.7809360508</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18185884.29513059</v>
+        <v>18601640.5260854</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8728203.005386103</v>
+        <v>9135685.687344903</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5772470.161536102</v>
+        <v>5584720.104209132</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -665,7 +667,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>91.93223593523001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>66.72457055527018</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>260.4446813871647</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.4128486741873</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>152.2874329677962</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.8268474048527</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>114.337874922633</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>94.34466592341086</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>247.6954100136169</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526348825</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>63.90220182932698</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>206.0822326695489</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.410571109821399</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1585,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.56894728178327</v>
+        <v>106.8364187178484</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429392</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>187.7303633741245</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>58.67748875058555</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>66.92484253651874</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>71.94762989914915</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>166.7391883841771</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>123.9086344760397</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>253.6542084583245</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2330,13 +2332,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>84.24643603236876</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>24.1295862066223</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>98.26334559068049</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>262.109398220601</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W28" t="n">
-        <v>255.1659571616772</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>71.94762989914915</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>25.47841348600273</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>158.2142150683671</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031848</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3278,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>114.7046543016375</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>58.67748875058538</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>57.2438748854572</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>98.15366458399274</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>303.7348751715299</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>71.94762989914915</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>23.3374193067185</v>
+        <v>156.3950745845503</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3748,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>114.7169539084987</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>186.4195166967129</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>19.53872709080465</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.4126253388124</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>25.56894728178327</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>352.5025113236557</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4147,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.99837738344348</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>199.3892443385093</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1447.573473297096</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C2" t="n">
-        <v>1020.672743310396</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D2" t="n">
-        <v>597.3801224953963</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E2" t="n">
-        <v>597.3801224953963</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F2" t="n">
-        <v>172.2559406847965</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>172.2559406847965</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="W2" t="n">
-        <v>1867.421837588626</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="X2" t="n">
-        <v>1867.421837588626</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y2" t="n">
-        <v>1867.421837588626</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4412,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
         <v>1302.520320645319</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4522,16 +4524,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>1961.835816717766</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4565,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>1867.421837588626</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.421837588626</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="6">
@@ -4656,16 +4658,16 @@
         <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4753,16 +4755,16 @@
         <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>1897.688190649854</v>
       </c>
       <c r="V7" t="n">
-        <v>1934.53329137545</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W7" t="n">
-        <v>1659.680887547963</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
         <v>1544.188084595808</v>
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1357.396947955218</v>
+        <v>174.692738652656</v>
       </c>
       <c r="C8" t="n">
-        <v>930.4962179685185</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="D8" t="n">
-        <v>930.4962179685185</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E8" t="n">
-        <v>504.5192781163761</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F8" t="n">
         <v>79.39509630577632</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N8" t="n">
-        <v>549.9383681074144</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4835,19 +4837,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1753.788297654871</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>1357.396947955218</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>1357.396947955218</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.396947955218</v>
+        <v>174.692738652656</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M9" t="n">
-        <v>201.1892506764427</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109778</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>458.7432593109778</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>458.7432593109778</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>458.7432593109778</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4960,52 +4962,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2120.543958335517</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C11" t="n">
-        <v>2055.996279720035</v>
+        <v>1378.162158184147</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.703658905035</v>
+        <v>954.8695373691469</v>
       </c>
       <c r="E11" t="n">
-        <v>1206.726719052893</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F11" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G11" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
         <v>44.49822504924753</v>
@@ -5042,49 +5044,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M11" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N11" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O11" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P11" t="n">
-        <v>2059.098288819458</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5117,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J12" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K12" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L12" t="n">
-        <v>201.1892506764427</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M12" t="n">
         <v>751.8547856608809</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>966.797495013206</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C13" t="n">
-        <v>794.824931892122</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F13" t="n">
         <v>454.3200315065851</v>
@@ -5233,16 +5235,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V13" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.361391567401</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X13" t="n">
-        <v>966.797495013206</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.797495013206</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C14" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D14" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
         <v>44.49822504924753</v>
@@ -5276,19 +5278,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K14" t="n">
-        <v>957.7672188505812</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L14" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M14" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N14" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O14" t="n">
         <v>2224.911252462377</v>
@@ -5303,25 +5305,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T14" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U14" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V14" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W14" t="n">
-        <v>887.3827134031587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X14" t="n">
-        <v>475.662714570906</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y14" t="n">
-        <v>70.32544452579629</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N15" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P15" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q15" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989112</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782725</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D16" t="n">
         <v>44.49822504924753</v>
@@ -5434,52 +5436,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1805.062888170846</v>
+        <v>234.1248547200804</v>
       </c>
       <c r="C17" t="n">
-        <v>1378.162158184147</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D17" t="n">
-        <v>954.8695373691469</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E17" t="n">
-        <v>528.8925975170044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F17" t="n">
-        <v>103.7684157064047</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G17" t="n">
-        <v>103.7684157064047</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H17" t="n">
         <v>44.49822504924753</v>
@@ -5516,16 +5518,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K17" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L17" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M17" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N17" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O17" t="n">
         <v>2224.911252462377</v>
@@ -5549,16 +5551,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462377</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y17" t="n">
-        <v>2224.911252462377</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J18" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K18" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L18" t="n">
-        <v>1417.526784297715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M18" t="n">
-        <v>1853.185855629757</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N18" t="n">
-        <v>1853.185855629757</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O18" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P18" t="n">
         <v>1853.185855629757</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>268.5772905989112</v>
+        <v>1051.483930128627</v>
       </c>
       <c r="C19" t="n">
-        <v>96.60472747782725</v>
+        <v>879.5113670075434</v>
       </c>
       <c r="D19" t="n">
-        <v>44.49822504924753</v>
+        <v>716.1945941343141</v>
       </c>
       <c r="E19" t="n">
-        <v>44.49822504924753</v>
+        <v>549.9863882871676</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924753</v>
+        <v>378.124614061728</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>211.8676443559602</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
         <v>44.49822504924753</v>
@@ -5707,16 +5709,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.502328002917</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W19" t="n">
-        <v>927.6499241754298</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X19" t="n">
-        <v>685.0860276212348</v>
+        <v>1241.649898840693</v>
       </c>
       <c r="Y19" t="n">
-        <v>458.7432593109769</v>
+        <v>1241.649898840693</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2030.462189228027</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C20" t="n">
-        <v>1603.561459241327</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D20" t="n">
-        <v>1180.268838426327</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="E20" t="n">
-        <v>754.2918985741849</v>
+        <v>117.1725986847517</v>
       </c>
       <c r="F20" t="n">
-        <v>754.2918985741849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G20" t="n">
-        <v>349.9528361636335</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>96.94557769889411</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>96.94557769889411</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L20" t="n">
-        <v>741.4907409650397</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M20" t="n">
-        <v>1386.035904231185</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N20" t="n">
-        <v>2030.581067497331</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O20" t="n">
-        <v>2030.581067497331</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P20" t="n">
-        <v>2030.581067497331</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q20" t="n">
-        <v>2486.666547001514</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X20" t="n">
-        <v>2435.799459273137</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y20" t="n">
-        <v>2030.462189228027</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>619.2079486691235</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>501.7020451866283</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>397.8620867019134</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>293.1601529748506</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>199.5143226577547</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4605508753587</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L21" t="n">
-        <v>571.6817616858872</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M21" t="n">
-        <v>1216.226924952033</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N21" t="n">
-        <v>1860.772088218178</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O21" t="n">
-        <v>1860.772088218178</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P21" t="n">
-        <v>1860.772088218178</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1779.447840779433</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1637.567905077111</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.799708996748</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1247.826570136014</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1051.305192969231</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>887.8278467358939</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>748.1349580891863</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1388.58637708744</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C22" t="n">
-        <v>1216.613813966356</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D22" t="n">
-        <v>1053.297041093127</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E22" t="n">
-        <v>887.0888352459801</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F22" t="n">
-        <v>715.2270610205405</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G22" t="n">
-        <v>548.9700913147726</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H22" t="n">
-        <v>423.8098544702881</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>423.8098544702881</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
-        <v>481.3011826944461</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>707.8287839002833</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>1062.518105194704</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1453.703900164955</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1831.195411040991</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>2186.623539720754</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2477.222751642655</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V22" t="n">
-        <v>2322.511414491446</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W22" t="n">
-        <v>2047.659010663958</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X22" t="n">
-        <v>1805.095114109764</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y22" t="n">
-        <v>1578.752345799506</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1875.388332696643</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C23" t="n">
-        <v>1448.487602709943</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D23" t="n">
-        <v>1025.194981894943</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E23" t="n">
-        <v>599.2180420428007</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F23" t="n">
-        <v>174.0938602322009</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G23" t="n">
-        <v>88.99645009849506</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H23" t="n">
-        <v>88.99645009849506</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>451.5999089153906</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K23" t="n">
-        <v>694.5156472489051</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L23" t="n">
-        <v>1624.140694868182</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M23" t="n">
-        <v>2628.42679628724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N23" t="n">
-        <v>3604.677854773941</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>4345.455210797893</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>4124.529639842526</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U23" t="n">
-        <v>3866.174730438938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V23" t="n">
-        <v>3508.685315565188</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W23" t="n">
-        <v>3112.293965865535</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X23" t="n">
-        <v>2700.573967033282</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y23" t="n">
-        <v>2295.236696988173</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1199411299502</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C24" t="n">
-        <v>538.614037647455</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D24" t="n">
-        <v>434.7740791627401</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E24" t="n">
-        <v>330.0721454356773</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F24" t="n">
-        <v>236.4263151185814</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G24" t="n">
-        <v>142.3725433361855</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99645009849506</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I24" t="n">
-        <v>88.99645009849506</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J24" t="n">
-        <v>360.6939393780862</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K24" t="n">
-        <v>951.1788659464257</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L24" t="n">
-        <v>951.1788659464257</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M24" t="n">
-        <v>951.1788659464257</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N24" t="n">
-        <v>1897.684080679005</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O24" t="n">
-        <v>1897.684080679005</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P24" t="n">
-        <v>1897.684080679005</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.684080679005</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R24" t="n">
-        <v>1897.684080679005</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.359833240259</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T24" t="n">
-        <v>1674.479897537938</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U24" t="n">
-        <v>1489.711701457574</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.73856259684</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.217185430058</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X24" t="n">
-        <v>924.7398391967206</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y24" t="n">
-        <v>785.046950550013</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.1141289609856</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C25" t="n">
-        <v>260.8582243239346</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D25" t="n">
-        <v>260.8582243239346</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E25" t="n">
-        <v>260.8582243239346</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F25" t="n">
-        <v>88.99645009849506</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G25" t="n">
-        <v>88.99645009849506</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H25" t="n">
-        <v>88.99645009849506</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
-        <v>146.4877783226531</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>373.0153795284903</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>727.704700822911</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1118.890495793162</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1496.382006669198</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1851.810135348961</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2142.409347270861</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2269.409477511623</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2269.409477511623</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2099.274430030758</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>1855.935082256658</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>1575.750633756962</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1294.039166364991</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>1019.186762537504</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X25" t="n">
-        <v>776.6228659833092</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y25" t="n">
-        <v>550.2800976730513</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1745.792697513689</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.891967526989</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="D26" t="n">
-        <v>895.5993467119897</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="E26" t="n">
-        <v>469.6224068598473</v>
+        <v>1011.462633885361</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H26" t="n">
         <v>44.49822504924753</v>
@@ -6227,16 +6229,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K26" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L26" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L26" t="n">
-        <v>1006.023847611597</v>
-      </c>
       <c r="M26" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N26" t="n">
-        <v>1556.689382596036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O26" t="n">
         <v>2107.354917580474</v>
@@ -6260,16 +6262,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V26" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W26" t="n">
-        <v>2165.64106180522</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X26" t="n">
-        <v>2165.64106180522</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y26" t="n">
-        <v>2165.64106180522</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L27" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M27" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N27" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O27" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
         <v>1853.185855629757</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C28" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D28" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F28" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
         <v>44.49822504924753</v>
@@ -6406,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U28" t="n">
-        <v>1944.72680396268</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V28" t="n">
-        <v>1944.72680396268</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W28" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X28" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y28" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.6025372422929</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C29" t="n">
-        <v>781.6025372422929</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D29" t="n">
-        <v>781.6025372422929</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="E29" t="n">
-        <v>781.6025372422929</v>
+        <v>117.1725986847517</v>
       </c>
       <c r="F29" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G29" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I29" t="n">
         <v>44.49822504924753</v>
@@ -6467,16 +6469,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M29" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N29" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O29" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P29" t="n">
         <v>1768.825772958194</v>
@@ -6491,22 +6493,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2199.175481264394</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U29" t="n">
-        <v>1940.820571860806</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V29" t="n">
-        <v>1583.331156987056</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W29" t="n">
-        <v>1186.939807287403</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X29" t="n">
-        <v>1186.939807287403</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y29" t="n">
-        <v>781.6025372422929</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M30" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N30" t="n">
-        <v>866.8612493132769</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O30" t="n">
-        <v>1417.526784297715</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H31" t="n">
         <v>144.2667933089716</v>
@@ -6643,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y31" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6703,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K32" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L32" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1696.494830002562</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2224.911252462377</v>
       </c>
       <c r="O32" t="n">
         <v>2224.911252462377</v>
@@ -6777,22 +6779,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1957143288386</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M33" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N33" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
         <v>1853.185855629757</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1115.519122905296</v>
+        <v>626.1818057320252</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>626.1818057320252</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1818057320252</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>626.1818057320252</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>454.3200315065856</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>288.0630618008178</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089722</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S34" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T34" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U34" t="n">
-        <v>1774.591756481815</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V34" t="n">
-        <v>1774.591756481815</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W34" t="n">
-        <v>1774.591756481815</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X34" t="n">
-        <v>1532.02785992762</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y34" t="n">
-        <v>1305.685091617362</v>
+        <v>626.1818057320252</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1011.462633885361</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C35" t="n">
-        <v>1011.462633885361</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D35" t="n">
-        <v>1011.462633885361</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E35" t="n">
-        <v>585.4856940332186</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F35" t="n">
-        <v>160.3615122226188</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G35" t="n">
         <v>44.49822504924753</v>
@@ -6938,25 +6940,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K35" t="n">
-        <v>549.9383681074144</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L35" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M35" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N35" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O35" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
         <v>2224.911252462377</v>
@@ -6974,13 +6976,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W35" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X35" t="n">
-        <v>1416.799903930471</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y35" t="n">
-        <v>1011.462633885361</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C36" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L36" t="n">
-        <v>201.1892506764427</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M36" t="n">
-        <v>751.8547856608809</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N36" t="n">
-        <v>1302.520320645319</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R36" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S36" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T36" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U36" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V36" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W36" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X36" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y36" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.5772905989122</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C37" t="n">
-        <v>210.755194755016</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D37" t="n">
-        <v>210.755194755016</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="E37" t="n">
-        <v>210.755194755016</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="F37" t="n">
-        <v>210.755194755016</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="G37" t="n">
         <v>44.49822504924814</v>
@@ -7117,28 +7119,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002918</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754307</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212358</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7432593109778</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1393.342889338594</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="C38" t="n">
-        <v>966.4421593518939</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D38" t="n">
-        <v>543.1495385368942</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E38" t="n">
-        <v>117.1725986847517</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
         <v>44.49822504924753</v>
@@ -7175,25 +7177,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L38" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M38" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N38" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L38" t="n">
-        <v>1508.432753835019</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2059.098288819458</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="O38" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
         <v>2224.911252462377</v>
@@ -7202,22 +7204,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W38" t="n">
-        <v>2224.911252462377</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X38" t="n">
-        <v>1813.191253630124</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y38" t="n">
-        <v>1813.191253630124</v>
+        <v>790.5370629299942</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J39" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K39" t="n">
-        <v>323.6423572907505</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6423572907505</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6423572907505</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N39" t="n">
-        <v>874.3078922751886</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O39" t="n">
-        <v>874.3078922751886</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
         <v>44.49822504924753</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.213795394888</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="W40" t="n">
-        <v>1460.640644580021</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X40" t="n">
-        <v>1218.076748025826</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y40" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1616.760346052955</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C41" t="n">
-        <v>1616.760346052955</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.467725237955</v>
+        <v>564.7129984784845</v>
       </c>
       <c r="E41" t="n">
-        <v>767.4907853858125</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F41" t="n">
-        <v>342.3666035752127</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G41" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H41" t="n">
         <v>44.49822504924753</v>
@@ -7412,25 +7414,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L41" t="n">
-        <v>44.49822504924753</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M41" t="n">
-        <v>455.3583126271592</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N41" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O41" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
         <v>2224.911252462377</v>
@@ -7442,19 +7444,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U41" t="n">
-        <v>2036.608710344485</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V41" t="n">
-        <v>2036.608710344485</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W41" t="n">
-        <v>2036.608710344485</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X41" t="n">
-        <v>2036.608710344485</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y41" t="n">
-        <v>2036.608710344485</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K42" t="n">
-        <v>51.94486801115937</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L42" t="n">
-        <v>51.94486801115937</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M42" t="n">
-        <v>602.6104029955975</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N42" t="n">
-        <v>1153.275937980036</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
-        <v>1703.941472964474</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
-        <v>1703.941472964474</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>792.3900115791711</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C43" t="n">
-        <v>792.3900115791711</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
         <v>44.49822504924753</v>
@@ -7597,22 +7599,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>1944.72680396268</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V43" t="n">
-        <v>1663.015336570709</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W43" t="n">
-        <v>1388.162932743222</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X43" t="n">
-        <v>1145.599036189027</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.5559802912367</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1164.243615207943</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="C44" t="n">
-        <v>1164.243615207943</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D44" t="n">
-        <v>1164.243615207943</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E44" t="n">
-        <v>1164.243615207943</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F44" t="n">
-        <v>739.1194333973433</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G44" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M44" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N44" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O44" t="n">
-        <v>856.3013579804531</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P44" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1520.30675795911</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1520.30675795911</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>1520.30675795911</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1164.243615207943</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y44" t="n">
-        <v>1164.243615207943</v>
+        <v>70.32544452579629</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K45" t="n">
-        <v>44.35863542273854</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L45" t="n">
-        <v>44.35863542273854</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M45" t="n">
-        <v>393.2225928484409</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N45" t="n">
-        <v>850.0084995511718</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O45" t="n">
-        <v>850.0084995511718</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P45" t="n">
-        <v>1306.794406253903</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.2713085277261</v>
+        <v>784.5225687761908</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2987454066421</v>
+        <v>612.5500056551068</v>
       </c>
       <c r="D46" t="n">
-        <v>374.9819725334128</v>
+        <v>449.2332327818775</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7737666862663</v>
+        <v>283.025026934731</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>111.1632527092915</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.196345931731</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W46" t="n">
-        <v>1369.343942104244</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X46" t="n">
-        <v>1126.78004555005</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.4372772397917</v>
+        <v>974.6885374882565</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>547.9365584046775</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8058,16 +8060,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3705437721212</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8304,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733348</v>
+        <v>184.1630016116739</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8471,10 +8473,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>268.1828480767084</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8550,7 +8552,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M11" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.6125166681525</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>173.266988396334</v>
+        <v>180.7888499740228</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>577.5708413291358</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104035</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L14" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>204.7674648980005</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>462.4589018454972</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O15" t="n">
-        <v>98.59786501766862</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9164,7 +9166,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>569.51856287543</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>594.539855548217</v>
@@ -9176,7 +9178,7 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9240,25 +9242,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>463.1564485244919</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>74.73422217369338</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>689.367762903477</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>688.4869833702859</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>688.3353433053002</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>547.3608483790971</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>674.1525009831821</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>672.3987486843957</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>281.134033454925</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -9714,19 +9716,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>180.6729970931268</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N24" t="n">
-        <v>977.4089016807933</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,19 +9877,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>453.322231905261</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>452.4011488286621</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>173.1511355154377</v>
       </c>
       <c r="L27" t="n">
         <v>578.7428998298237</v>
@@ -9972,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10115,10 +10117,10 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>301.3352940721928</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
@@ -10127,7 +10129,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>267.0107895760206</v>
       </c>
       <c r="O30" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P30" t="n">
-        <v>461.8305092169925</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>594.539855548217</v>
@@ -10358,10 +10360,10 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N32" t="n">
-        <v>571.0335849150666</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10425,13 +10427,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
         <v>579.3245936279221</v>
@@ -10443,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>461.8305092169925</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,28 +10588,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>546.3101998434627</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M35" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10667,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931268</v>
       </c>
       <c r="L36" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M36" t="n">
         <v>579.3245936279221</v>
@@ -10677,7 +10679,7 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,28 +10825,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>204.7674648980005</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N39" t="n">
         <v>577.5708413291358</v>
@@ -10917,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>458.854857777643</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>452.4414523720699</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M42" t="n">
         <v>579.3245936279221</v>
@@ -11151,13 +11153,13 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.498939971083</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
-        <v>457.4303624918456</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M45" t="n">
-        <v>375.4846162958657</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>202.9574588054755</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>36.59905063032082</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22604,13 +22606,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22764,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>18.4496713308867</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.2370319744274</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>255.315365876134</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22993,19 +22995,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>169.0675053131987</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>125.8003826660199</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23021,16 +23023,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>328.287056763422</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23075,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>106.2191107113961</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568363</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>358.7295208575059</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>215.6349377840721</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23416,16 +23418,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>159.2730340346756</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.0809333668315</v>
+        <v>308.8134619307663</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23501,13 +23503,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402031</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>234.9013593127083</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>236.21220599012</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23789,16 +23791,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>75.43346327040841</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>348.9253100933446</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24032,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>240.8636104597531</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.44967133088747</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>18.44967133088764</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>316.0492357540771</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>377.1543111380362</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>71.98949189919266</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>158.7635417718928</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24500,16 +24502,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>295.2370319744276</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24655,13 +24657,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W28" t="n">
-        <v>16.93792262753493</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>348.9253100933446</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>193.2379017598105</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>12.03862242150609</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>165.7641609568369</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>285.5910174848083</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -25214,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>348.9253100933448</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>113.0089626044159</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050426</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25324,7 +25326,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>111.9150054770848</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>348.9253100933446</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -25451,13 +25453,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>248.7664604824936</v>
+        <v>115.7088052046618</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>307.0002165451223</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25682,7 +25684,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>69.35184361283896</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25691,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>259.3556256272468</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.666715288343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>390.0809333668315</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25874,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25919,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>55.10028752027455</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>98.5960226252667</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26071,25 +26073,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>79.50510837954207</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482976.7994581398</v>
+        <v>482976.79945814</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482976.7994581398</v>
+        <v>482976.7994581399</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482976.79945814</v>
+        <v>482976.7994581398</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>524734.8324945901</v>
+        <v>482976.79945814</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>727915.0253841507</v>
+        <v>482976.7994581399</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482976.79945814</v>
+        <v>482976.7994581398</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482976.7994581398</v>
+        <v>482976.79945814</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482976.7994581398</v>
+        <v>482976.79945814</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428628.4047021568</v>
+        <v>482976.7994581399</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>118588.5340553546</v>
       </c>
       <c r="C2" t="n">
-        <v>118588.5340553546</v>
+        <v>118588.5340553547</v>
       </c>
       <c r="D2" t="n">
         <v>118588.5340553546</v>
       </c>
       <c r="E2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="F2" t="n">
         <v>118588.5340553546</v>
@@ -26329,16 +26331,16 @@
         <v>118588.5340553546</v>
       </c>
       <c r="H2" t="n">
-        <v>128841.2409155538</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="I2" t="n">
-        <v>178727.3779296472</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="J2" t="n">
         <v>118588.5340553546</v>
       </c>
       <c r="K2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="L2" t="n">
         <v>118588.5340553546</v>
@@ -26353,7 +26355,7 @@
         <v>118588.5340553546</v>
       </c>
       <c r="P2" t="n">
-        <v>105244.5587950954</v>
+        <v>118588.5340553546</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>9081.116486988822</v>
       </c>
       <c r="C4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="D4" t="n">
         <v>9081.116486988823</v>
       </c>
       <c r="E4" t="n">
+        <v>9081.116486988823</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9081.116486988823</v>
+      </c>
+      <c r="G4" t="n">
         <v>9081.116486988822</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>9081.116486988822</v>
       </c>
-      <c r="G4" t="n">
-        <v>9081.11648698882</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9873.154418381477</v>
-      </c>
       <c r="I4" t="n">
-        <v>13726.93794155979</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="J4" t="n">
         <v>9081.116486988822</v>
@@ -26445,10 +26447,10 @@
         <v>9081.116486988823</v>
       </c>
       <c r="L4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="M4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="N4" t="n">
         <v>9081.116486988822</v>
@@ -26457,7 +26459,7 @@
         <v>9081.116486988823</v>
       </c>
       <c r="P4" t="n">
-        <v>8050.273149146124</v>
+        <v>9081.116486988823</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>39584.18780462793</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>67637.30207485624</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
         <v>33818.65103742812</v>
@@ -26509,7 +26511,7 @@
         <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144343.5668837996</v>
+        <v>-144343.5668837995</v>
       </c>
       <c r="C6" t="n">
-        <v>42061.16653093765</v>
+        <v>42061.16653093771</v>
       </c>
       <c r="D6" t="n">
-        <v>42061.16653093768</v>
+        <v>42061.1665309377</v>
       </c>
       <c r="E6" t="n">
-        <v>75688.76653093772</v>
+        <v>75688.76653093769</v>
       </c>
       <c r="F6" t="n">
-        <v>75688.76653093768</v>
+        <v>75688.76653093766</v>
       </c>
       <c r="G6" t="n">
-        <v>75688.76653093768</v>
+        <v>75688.76653093769</v>
       </c>
       <c r="H6" t="n">
-        <v>53798.47583692911</v>
+        <v>75688.76653093769</v>
       </c>
       <c r="I6" t="n">
-        <v>-25332.78642646265</v>
+        <v>75688.76653093766</v>
       </c>
       <c r="J6" t="n">
-        <v>75688.76653093768</v>
+        <v>-69844.90340387885</v>
       </c>
       <c r="K6" t="n">
-        <v>75688.76653093772</v>
+        <v>75688.76653093769</v>
       </c>
       <c r="L6" t="n">
-        <v>75688.76653093768</v>
+        <v>75688.76653093766</v>
       </c>
       <c r="M6" t="n">
-        <v>75688.7665309377</v>
+        <v>75688.76653093769</v>
       </c>
       <c r="N6" t="n">
         <v>75688.7665309377</v>
@@ -26561,7 +26563,7 @@
         <v>75688.76653093769</v>
       </c>
       <c r="P6" t="n">
-        <v>69141.17137572097</v>
+        <v>75688.76653093763</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>1112.455626231188</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
         <v>556.2278131155941</v>
@@ -26829,7 +26831,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>510.5455990486534</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2737632597932</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597932</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35191,10 +35193,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35270,7 +35272,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M11" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>150.7519016821044</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>556.2278131155941</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L14" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O15" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>556.2278131155941</v>
@@ -35896,7 +35898,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M18" t="n">
-        <v>440.0596680121639</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.31426268810685</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>524.8457616648675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>245.3694326601157</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>158.2737632597934</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N24" t="n">
-        <v>956.0658734672517</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L26" t="n">
-        <v>415.0101894726381</v>
       </c>
       <c r="M26" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="L27" t="n">
         <v>556.2278131155941</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,10 +36837,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="O30" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P30" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>556.2278131155941</v>
@@ -37078,10 +37080,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N32" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="O32" t="n">
         <v>533.7539620806206</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
         <v>556.2278131155941</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M35" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>158.2737632597934</v>
       </c>
       <c r="L36" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M36" t="n">
         <v>556.2278131155941</v>
@@ -37397,7 +37399,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P38" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M38" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N38" t="n">
-        <v>167.4878420635545</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N39" t="n">
         <v>556.2278131155941</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M42" t="n">
         <v>556.2278131155941</v>
@@ -37871,13 +37873,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P44" t="n">
-        <v>419.8550006816143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M45" t="n">
-        <v>352.3878357835378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290911.7809360508</v>
+        <v>285751.3883904017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18601640.5260854</v>
+        <v>18601640.52608541</v>
       </c>
     </row>
     <row r="8">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>111.1167712051832</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>66.72457055527018</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>102.960213103486</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>397.5631103754774</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>152.2874329677962</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>109.8268474048527</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>94.34466592341086</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>26.55717283999598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>206.0822326695489</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>64.15475900175164</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526347924</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.8364187178484</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>95.86591325725517</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429482</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716623</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>187.7303633741245</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>166.6183073226322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>66.92484253651874</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,13 +2086,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>150.4390786330321</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>71.94762989914915</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>253.6542084583245</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2329,16 +2329,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>22.4993179100326</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.1295862066223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>262.109398220601</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>295.7229023159655</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>200.7388685273639</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>71.94762989914915</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>149.8682168106858</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>369.4077826557864</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.31517967031848</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>58.67748875058538</v>
+        <v>184.6979496913135</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>98.15366458399274</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>303.7348751715299</v>
+        <v>148.3272850792975</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>152.0898487279626</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845503</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>114.7169539084987</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>51.03409628034003</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>34.02740555137104</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>19.53872709080465</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.56894728178327</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>24.1295862066223</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>65.99837738344348</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.792697513689</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.891967526989</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="D2" t="n">
-        <v>895.5993467119897</v>
+        <v>156.7373878827659</v>
       </c>
       <c r="E2" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F2" t="n">
         <v>44.49822504924753</v>
@@ -4333,19 +4333,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2157.512696345942</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2157.512696345942</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2157.512696345942</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2157.512696345942</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>2157.512696345942</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.792697513689</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.792697513689</v>
+        <v>580.0300086977657</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4497,43 +4497,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>959.9384314487228</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>959.9384314487228</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.792697513689</v>
+        <v>872.0540642705591</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.891967526989</v>
+        <v>872.0540642705591</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F5" t="n">
         <v>44.49822504924753</v>
@@ -4567,10 +4567,10 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
         <v>1100.603903091853</v>
@@ -4582,7 +4582,7 @@
         <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4600,19 +4600,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1899.61838738015</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1899.61838738015</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1745.792697513689</v>
+        <v>872.0540642705591</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.792697513689</v>
+        <v>872.0540642705591</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
         <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
         <v>1307.021068682275</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743915</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2177.87263914955</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1897.688190649854</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1786.751981150003</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.692738652656</v>
+        <v>475.662714570906</v>
       </c>
       <c r="C8" t="n">
-        <v>79.39509630577632</v>
+        <v>475.662714570906</v>
       </c>
       <c r="D8" t="n">
-        <v>79.39509630577632</v>
+        <v>475.662714570906</v>
       </c>
       <c r="E8" t="n">
-        <v>79.39509630577632</v>
+        <v>475.662714570906</v>
       </c>
       <c r="F8" t="n">
-        <v>79.39509630577632</v>
+        <v>475.662714570906</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>71.32365216035458</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>71.32365216035458</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4813,43 +4813,43 @@
         <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>572.914647509062</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1388.141357229671</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>991.7500075300184</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>580.0300086977657</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.692738652656</v>
+        <v>475.662714570906</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7093087981016</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4983,31 +4983,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462377</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462377</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462377</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1805.062888170846</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="C11" t="n">
-        <v>1378.162158184147</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D11" t="n">
-        <v>954.8695373691469</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E11" t="n">
-        <v>746.7056659857641</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F11" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H11" t="n">
         <v>44.49822504924753</v>
@@ -5047,19 +5047,19 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N11" t="n">
-        <v>2107.354917580474</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
         <v>2107.354917580474</v>
@@ -5068,25 +5068,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X11" t="n">
-        <v>2224.911252462377</v>
+        <v>1301.860406891657</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.911252462377</v>
+        <v>896.5231368465472</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L12" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M12" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N12" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O12" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109769</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924753</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1299.938409122541</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C14" t="n">
-        <v>1299.938409122541</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D14" t="n">
-        <v>1299.938409122541</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E14" t="n">
-        <v>873.9614692703988</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F14" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>572.914647509062</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L14" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M14" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N14" t="n">
-        <v>2224.911252462377</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.191253630124</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="Y14" t="n">
-        <v>1407.853983585014</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989122</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782816</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
         <v>44.49822504924753</v>
@@ -5463,25 +5463,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668685</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894585</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394889</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002918</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754307</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212358</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109778</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.1248547200804</v>
+        <v>1097.889767635387</v>
       </c>
       <c r="C17" t="n">
-        <v>44.49822504924753</v>
+        <v>670.9890376486874</v>
       </c>
       <c r="D17" t="n">
-        <v>44.49822504924753</v>
+        <v>247.6964168336876</v>
       </c>
       <c r="E17" t="n">
-        <v>44.49822504924753</v>
+        <v>247.6964168336876</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
         <v>2224.911252462377</v>
@@ -5542,25 +5542,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V17" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W17" t="n">
-        <v>1471.030487888973</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X17" t="n">
-        <v>1059.31048905672</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="Y17" t="n">
-        <v>653.9732190116105</v>
+        <v>1097.889767635387</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N18" t="n">
-        <v>1145.829295018124</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O18" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1051.483930128627</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>879.5113670075434</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>716.1945941343141</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>549.9863882871676</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>378.124614061728</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>211.8676443559602</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
         <v>44.49822504924753</v>
@@ -5697,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.213795394888</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>1484.213795394888</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>1241.649898840693</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>1241.649898840693</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1393.342889338594</v>
+        <v>1083.378673388967</v>
       </c>
       <c r="C20" t="n">
-        <v>966.4421593518939</v>
+        <v>656.4779434022671</v>
       </c>
       <c r="D20" t="n">
-        <v>543.1495385368942</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="E20" t="n">
-        <v>117.1725986847517</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M20" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N20" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O20" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P20" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.191253630124</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="Y20" t="n">
-        <v>1813.191253630124</v>
+        <v>1503.227037680497</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M21" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N21" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O21" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P21" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
         <v>1853.185855629757</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1027.91077931376</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>855.9382161926764</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>692.6214433194471</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
         <v>44.49822504924753</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1943.199785070404</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1686.983412890279</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>1444.419516336084</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>1218.076748025826</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1780.689568770218</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="C23" t="n">
-        <v>1353.788838783518</v>
+        <v>1214.362747989863</v>
       </c>
       <c r="D23" t="n">
-        <v>930.4962179685185</v>
+        <v>791.0701271748628</v>
       </c>
       <c r="E23" t="n">
-        <v>504.5192781163761</v>
+        <v>365.0931873227204</v>
       </c>
       <c r="F23" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G23" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N23" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462377</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X23" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y23" t="n">
-        <v>2200.537933061748</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J24" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K24" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L24" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M24" t="n">
-        <v>1674.245717477938</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N24" t="n">
-        <v>2224.911252462377</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O24" t="n">
-        <v>2224.911252462377</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P24" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>458.7432593109769</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C25" t="n">
-        <v>458.7432593109769</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D25" t="n">
-        <v>458.7432593109769</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E25" t="n">
-        <v>458.7432593109769</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
         <v>44.49822504924753</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1011.462633885361</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C26" t="n">
-        <v>1011.462633885361</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D26" t="n">
-        <v>1011.462633885361</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E26" t="n">
-        <v>1011.462633885361</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F26" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G26" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
         <v>44.49822504924753</v>
@@ -6226,28 +6226,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N26" t="n">
-        <v>1696.494830002562</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R26" t="n">
         <v>2224.911252462377</v>
@@ -6256,22 +6256,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W26" t="n">
-        <v>1828.519902762723</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X26" t="n">
-        <v>1416.799903930471</v>
+        <v>1705.275679167651</v>
       </c>
       <c r="Y26" t="n">
-        <v>1011.462633885361</v>
+        <v>1299.938409122541</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M27" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="N27" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P27" t="n">
         <v>1853.185855629757</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
         <v>44.49822504924753</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2177.872639149549</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T28" t="n">
-        <v>2177.872639149549</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U28" t="n">
-        <v>2177.872639149549</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1393.342889338594</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="C29" t="n">
-        <v>966.4421593518939</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D29" t="n">
-        <v>543.1495385368942</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E29" t="n">
-        <v>117.1725986847517</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
         <v>44.49822504924753</v>
@@ -6469,19 +6469,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M29" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N29" t="n">
-        <v>957.7672188505812</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O29" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P29" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q29" t="n">
         <v>2224.911252462377</v>
@@ -6493,22 +6493,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462377</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.191253630124</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y29" t="n">
-        <v>1813.191253630124</v>
+        <v>580.0300086977657</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924753</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336857</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N30" t="n">
-        <v>838.3748437825398</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>720.7977379486855</v>
       </c>
       <c r="C31" t="n">
-        <v>144.2667933089716</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D31" t="n">
-        <v>144.2667933089716</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E31" t="n">
-        <v>144.2667933089716</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F31" t="n">
-        <v>144.2667933089716</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
         <v>44.49822504924753</v>
@@ -6645,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1379.870371525204</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1745.792697513689</v>
+        <v>910.6348887030276</v>
       </c>
       <c r="C32" t="n">
-        <v>1318.891967526989</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D32" t="n">
-        <v>895.5993467119897</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E32" t="n">
-        <v>469.6224068598473</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
         <v>44.49822504924753</v>
@@ -6709,16 +6709,16 @@
         <v>595.1637600336857</v>
       </c>
       <c r="M32" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="N32" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="N32" t="n">
-        <v>1696.494830002562</v>
-      </c>
       <c r="O32" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q32" t="n">
         <v>2224.911252462377</v>
@@ -6727,25 +6727,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X32" t="n">
-        <v>2165.64106180522</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y32" t="n">
-        <v>2165.64106180522</v>
+        <v>910.6348887030276</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M33" t="n">
+        <v>874.3078922751886</v>
+      </c>
+      <c r="N33" t="n">
+        <v>874.3078922751886</v>
+      </c>
+      <c r="O33" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1853.185855629757</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
         <v>1853.185855629757</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>626.1818057320252</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>626.1818057320252</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>626.1818057320252</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320252</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065856</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089722</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668685</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894585</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394889</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002918</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754307</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212358</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>626.1818057320252</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.792697513689</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>928.6646569729185</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
         <v>44.49822504924753</v>
@@ -6952,7 +6952,7 @@
         <v>1696.494830002562</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P35" t="n">
         <v>2224.911252462377</v>
@@ -6964,25 +6964,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X35" t="n">
-        <v>2165.64106180522</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="Y35" t="n">
-        <v>2165.64106180522</v>
+        <v>1355.565386959618</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C36" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>416.2236218818665</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>572.914647509062</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>1123.5801824935</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>1674.245717477938</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>2224.911252462377</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>2224.911252462377</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
-        <v>2224.911252462377</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S36" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T36" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U36" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V36" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W36" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X36" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y36" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>315.6159039117389</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C37" t="n">
-        <v>143.6433407906549</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D37" t="n">
-        <v>44.49822504924814</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E37" t="n">
-        <v>44.49822504924814</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T37" t="n">
-        <v>1811.436857207411</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U37" t="n">
-        <v>1531.252408707716</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V37" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W37" t="n">
-        <v>974.6885374882575</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X37" t="n">
-        <v>732.1246409340625</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y37" t="n">
-        <v>505.7818726238046</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>483.7341587163277</v>
+        <v>910.6348887030276</v>
       </c>
       <c r="C38" t="n">
         <v>483.7341587163277</v>
@@ -7174,52 +7174,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K38" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L38" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M38" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N38" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R38" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U38" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V38" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W38" t="n">
-        <v>1607.594331807357</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X38" t="n">
-        <v>1195.874332975104</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="Y38" t="n">
-        <v>790.5370629299942</v>
+        <v>1060.460429187166</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K39" t="n">
-        <v>201.1892506764427</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N39" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O39" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>541.958672221996</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>369.986109100912</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>369.986109100912</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>369.986109100912</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>198.1243348754724</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
         <v>44.49822504924753</v>
@@ -7359,25 +7359,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.72680396268</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V40" t="n">
-        <v>1944.72680396268</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>732.1246409340616</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>988.0056192934842</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="C41" t="n">
-        <v>988.0056192934842</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="D41" t="n">
-        <v>564.7129984784845</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="E41" t="n">
-        <v>448.8372874597989</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="F41" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>1218.160237973755</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N41" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O41" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P41" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462377</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.191253630124</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y41" t="n">
-        <v>1407.853983585014</v>
+        <v>833.1521294446566</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1027.91077931376</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C43" t="n">
-        <v>855.9382161926764</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="D43" t="n">
-        <v>692.6214433194471</v>
+        <v>322.4341785193738</v>
       </c>
       <c r="E43" t="n">
-        <v>526.4132374723006</v>
+        <v>322.4341785193738</v>
       </c>
       <c r="F43" t="n">
-        <v>354.551463246861</v>
+        <v>322.4341785193738</v>
       </c>
       <c r="G43" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
         <v>44.49822504924753</v>
@@ -7602,19 +7602,19 @@
         <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.571904688275</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V43" t="n">
-        <v>1961.835816717766</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W43" t="n">
-        <v>1686.983412890279</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X43" t="n">
-        <v>1444.419516336084</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y43" t="n">
-        <v>1218.076748025826</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.49822504924753</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C44" t="n">
-        <v>44.49822504924753</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D44" t="n">
-        <v>44.49822504924753</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924753</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L44" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M44" t="n">
-        <v>595.1637600336857</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="N44" t="n">
-        <v>667.4947029893171</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O44" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X44" t="n">
-        <v>475.662714570906</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y44" t="n">
-        <v>70.32544452579629</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.5225687761908</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>612.5500056551068</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>449.2332327818775</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>283.025026934731</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>111.1632527092915</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
         <v>44.49822504924753</v>
@@ -7833,25 +7833,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1811.43685720741</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>974.6885374882565</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>974.6885374882565</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>974.6885374882565</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
-        <v>182.5915214642101</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8297,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>184.1630016116739</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8382,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8461,10 +8461,10 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>204.9191049629863</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8473,10 +8473,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>268.1828480767084</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>372.8619081923508</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,22 +8695,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>180.7888499740228</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>569.51856287543</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>462.4589018454972</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9026,10 +9026,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366446</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O18" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P18" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>591.9924139104035</v>
@@ -9409,22 +9409,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>110.6369203512731</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
@@ -9649,19 +9649,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>571.1449214366446</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>180.6729970931268</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O26" t="n">
-        <v>452.4011488286621</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>173.1511355154377</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298237</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10117,22 +10117,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P29" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>267.0107895760206</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10357,19 +10357,19 @@
         <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O32" t="n">
-        <v>571.1449214366446</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10600,10 +10600,10 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O35" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>180.6729970931268</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
@@ -10834,10 +10834,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
         <v>593.8031749258255</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
         <v>594.539855548217</v>
@@ -11071,19 +11071,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N44" t="n">
-        <v>110.3411813754879</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O44" t="n">
         <v>593.6187724716183</v>
@@ -11317,10 +11317,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,16 +22549,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>310.6003992484378</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.59905063032082</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.30409592145904</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>21.49658423137225</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22840,16 +22840,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>255.315365876134</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>169.0675053131987</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>328.287056763422</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23035,13 +23035,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7.990729703967521</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>215.6349377840721</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23317,16 +23317,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>343.4480398421786</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568373</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>308.8134619307663</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23503,19 +23503,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>296.5615229454014</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402022</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.5577190788903</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>234.9013593127083</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>254.2546326698615</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23752,7 +23752,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>75.43346327040841</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>268.6206159738176</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>348.9253100933446</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -23989,7 +23989,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -24031,10 +24031,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>18.44967133088764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>398.3736220824612</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.1543111380362</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>158.7635417718928</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24496,7 +24496,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
@@ -24505,10 +24505,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>111.8798965279647</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>214.9110121212508</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>348.9253100933446</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>122.2356629785263</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>31.87611468887218</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.7641609568369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25174,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>348.9253100933448</v>
+        <v>222.9048491526167</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>63.52994056050426</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>111.9150054770848</v>
+        <v>267.3225955693173</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>12.50455128074753</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046618</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>307.0002165451223</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>369.8388437121537</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>130.5669944573391</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>259.3556256272468</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.0809333668315</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -25885,7 +25885,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>383.4732126373079</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>98.5960226252667</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482976.79945814</v>
+        <v>482976.7994581399</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482976.7994581399</v>
+        <v>482976.7994581398</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482976.7994581399</v>
+        <v>482976.7994581398</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482976.7994581398</v>
+        <v>482976.79945814</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482976.79945814</v>
+        <v>482976.7994581398</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482976.79945814</v>
+        <v>482976.7994581398</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482976.7994581399</v>
+        <v>482976.79945814</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>118588.5340553546</v>
       </c>
       <c r="C2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="D2" t="n">
         <v>118588.5340553546</v>
@@ -26423,43 +26423,43 @@
         <v>9081.116486988823</v>
       </c>
       <c r="D4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="E4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="F4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="G4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="H4" t="n">
         <v>9081.116486988822</v>
       </c>
       <c r="I4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="J4" t="n">
         <v>9081.116486988822</v>
       </c>
       <c r="K4" t="n">
+        <v>9081.116486988822</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9081.116486988822</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9081.11648698882</v>
+      </c>
+      <c r="N4" t="n">
         <v>9081.116486988823</v>
       </c>
-      <c r="L4" t="n">
-        <v>9081.116486988823</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9081.116486988823</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>9081.11648698882</v>
+      </c>
+      <c r="P4" t="n">
         <v>9081.116486988822</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9081.116486988823</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9081.116486988823</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144343.5668837995</v>
+        <v>-144952.6125962892</v>
       </c>
       <c r="C6" t="n">
-        <v>42061.16653093771</v>
+        <v>41452.12081844802</v>
       </c>
       <c r="D6" t="n">
-        <v>42061.1665309377</v>
+        <v>41452.12081844802</v>
       </c>
       <c r="E6" t="n">
-        <v>75688.76653093769</v>
+        <v>75079.72081844801</v>
       </c>
       <c r="F6" t="n">
-        <v>75688.76653093766</v>
+        <v>75079.72081844801</v>
       </c>
       <c r="G6" t="n">
-        <v>75688.76653093769</v>
+        <v>75079.720818448</v>
       </c>
       <c r="H6" t="n">
-        <v>75688.76653093769</v>
+        <v>75079.72081844804</v>
       </c>
       <c r="I6" t="n">
-        <v>75688.76653093766</v>
+        <v>75079.72081844801</v>
       </c>
       <c r="J6" t="n">
-        <v>-69844.90340387885</v>
+        <v>-70453.94911636849</v>
       </c>
       <c r="K6" t="n">
-        <v>75688.76653093769</v>
+        <v>75079.720818448</v>
       </c>
       <c r="L6" t="n">
-        <v>75688.76653093766</v>
+        <v>75079.72081844798</v>
       </c>
       <c r="M6" t="n">
-        <v>75688.76653093769</v>
+        <v>75079.720818448</v>
       </c>
       <c r="N6" t="n">
-        <v>75688.7665309377</v>
+        <v>75079.72081844803</v>
       </c>
       <c r="O6" t="n">
-        <v>75688.76653093769</v>
+        <v>75079.720818448</v>
       </c>
       <c r="P6" t="n">
-        <v>75688.76653093763</v>
+        <v>75079.72081844804</v>
       </c>
     </row>
   </sheetData>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O2" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,14 +34935,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>144.2794790315872</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>162.8199733981322</v>
+        <v>162.8199733981321</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35102,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35181,10 +35181,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35193,10 +35193,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P11" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N11" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>533.7539620806207</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N14" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806206</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="O18" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N18" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O18" t="n">
-        <v>158.2737632597931</v>
       </c>
       <c r="P18" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>556.2278131155941</v>
@@ -36129,22 +36129,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O20" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P20" t="n">
-        <v>73.06155854104179</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36369,19 +36369,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="P23" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O23" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N24" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="O24" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O26" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>150.7519016821044</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M27" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N27" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P29" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O32" t="n">
-        <v>533.7539620806206</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="P33" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M33" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N33" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>533.7539620806206</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>158.2737632597934</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O38" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="P38" t="n">
         <v>556.2278131155941</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
         <v>556.2278131155941</v>
@@ -37791,19 +37791,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="N44" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>73.0615585410419</v>
       </c>
       <c r="O44" t="n">
         <v>556.2278131155941</v>
@@ -38037,10 +38037,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
